--- a/DATA_goal/Junction_Flooding_469.xlsx
+++ b/DATA_goal/Junction_Flooding_469.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44800.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44800.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.94</v>
+        <v>49.35</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.4</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44800.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.37</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>1.53</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="W4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.96</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44800.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.15</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.8</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.03</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.46</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.98</v>
+        <v>129.78</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.51</v>
+        <v>25.09</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.35</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.77</v>
+        <v>27.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_469.xlsx
+++ b/DATA_goal/Junction_Flooding_469.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44800.54861111111</v>
+        <v>45150.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44800.55555555555</v>
+        <v>45150.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.7</v>
+        <v>15.374</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.21</v>
+        <v>10.833</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.775</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.68</v>
+        <v>33.225</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>26.821</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.09</v>
+        <v>12.099</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.17</v>
+        <v>46.928</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.31</v>
+        <v>18.615</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.42</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.41</v>
+        <v>11.826</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.09</v>
+        <v>13.288</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.76</v>
+        <v>13.877</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.47</v>
+        <v>3.865</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.49</v>
+        <v>12.031</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.53</v>
+        <v>16.943</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.05</v>
+        <v>10.387</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.6</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.039</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.35</v>
+        <v>175.806</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.4</v>
+        <v>33.682</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.63</v>
+        <v>11.105</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.57</v>
+        <v>22.313</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.35</v>
+        <v>11.573</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.47</v>
+        <v>2.181</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.56</v>
+        <v>22.799</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.04</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.47</v>
+        <v>8.882999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.18</v>
+        <v>10.415</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.27</v>
+        <v>13.793</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.57</v>
+        <v>42.715</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.07</v>
+        <v>6.128</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4</v>
+        <v>13.884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44800.5625</v>
+        <v>45150.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.91</v>
+        <v>9.128</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.82</v>
+        <v>6.393</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>1.077</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.69</v>
+        <v>19.758</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.55</v>
+        <v>15.852</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.05</v>
+        <v>7.184</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.86</v>
+        <v>30.243</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.99</v>
+        <v>11.053</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.98</v>
+        <v>4.756</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.21</v>
+        <v>6.92</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.21</v>
+        <v>7.923</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.97</v>
+        <v>8.257999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.64</v>
+        <v>2.297</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.31</v>
+        <v>7.143</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.41</v>
+        <v>10.049</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.22</v>
+        <v>6.248</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.986</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.606</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.32</v>
+        <v>101.413</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.43</v>
+        <v>20.074</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.53</v>
+        <v>6.594</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.8</v>
+        <v>13.24</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.31</v>
+        <v>6.866</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.349</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.65</v>
+        <v>14.296</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.21</v>
+        <v>5.824</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.92</v>
+        <v>5.309</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.3</v>
+        <v>6.217</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.68</v>
+        <v>8.221</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.96</v>
+        <v>27.563</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.49</v>
+        <v>3.604</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.52</v>
+        <v>8.244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44800.56944444445</v>
+        <v>45150.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.55</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.93</v>
+        <v>10.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.34</v>
+        <v>1.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.73</v>
+        <v>32.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.81</v>
+        <v>26.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.73</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.42</v>
+        <v>44.19</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.71</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.15</v>
+        <v>7.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.09</v>
+        <v>11.7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.45</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.8</v>
+        <v>13.64</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.98</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.03</v>
+        <v>16.52</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.46</v>
+        <v>9.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>129.78</v>
+        <v>170.07</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.09</v>
+        <v>32.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.79</v>
+        <v>21.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.18</v>
+        <v>1.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.53</v>
+        <v>21.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.35</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.32</v>
+        <v>8.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.64</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.53</v>
+        <v>13.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.68</v>
+        <v>39.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.27</v>
+        <v>6.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44800.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.71</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.75</v>
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_469.xlsx
+++ b/DATA_goal/Junction_Flooding_469.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45150.50694444445</v>
+        <v>44800.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.737</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.527</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.029</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.827</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>31.89</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.745</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.499</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.687</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.44</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.208</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.679</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.314</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.706</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.663</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.445</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.568</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.441</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.244</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>215.823</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.754</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.534</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.795</v>
+        <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.632</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.069</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.634</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.955</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.86</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.744</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.181</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.455</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.233</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.422</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.92</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45150.51388888889</v>
+        <v>44800.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.374</v>
+        <v>4.701</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.833</v>
+        <v>4.214</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.775</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33.225</v>
+        <v>9.682</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.821</v>
+        <v>8.798999999999999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.099</v>
+        <v>3.089</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>46.928</v>
+        <v>10.165</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.615</v>
+        <v>5.311</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.026999999999999</v>
+        <v>2.421</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.826</v>
+        <v>3.414</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.288</v>
+        <v>5.088</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.877</v>
+        <v>4.764</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.865</v>
+        <v>1.471</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.031</v>
+        <v>3.488</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.943</v>
+        <v>5.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.387</v>
+        <v>3.054</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.602</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.039</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>175.806</v>
+        <v>49.35</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.682</v>
+        <v>10.401</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.105</v>
+        <v>3.626</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.313</v>
+        <v>6.569</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.573</v>
+        <v>3.352</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.181</v>
+        <v>0.473</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.799</v>
+        <v>5.557</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>3.035</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.882999999999999</v>
+        <v>2.471</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.415</v>
+        <v>3.178</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.793</v>
+        <v>4.267</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>42.715</v>
+        <v>9.568</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.128</v>
+        <v>3.071</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.884</v>
+        <v>4.002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45150.52083333334</v>
+        <v>44800.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.128</v>
+        <v>1.91</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.393</v>
+        <v>1.815</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.077</v>
+        <v>0.017</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.758</v>
+        <v>3.693</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.852</v>
+        <v>3.555</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.184</v>
+        <v>1.055</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.243</v>
+        <v>6.856</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.053</v>
+        <v>1.991</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.756</v>
+        <v>0.98</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.92</v>
+        <v>1.205</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.923</v>
+        <v>2.212</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.257999999999999</v>
+        <v>1.974</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.297</v>
+        <v>0.637</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.143</v>
+        <v>1.309</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.049</v>
+        <v>2.412</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.248</v>
+        <v>1.22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.986</v>
+        <v>0.374</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.606</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.413</v>
+        <v>15.318</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.074</v>
+        <v>4.431</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.594</v>
+        <v>1.526</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.24</v>
+        <v>2.799</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.866</v>
+        <v>1.312</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.349</v>
+        <v>0.186</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.296</v>
+        <v>3.653</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.824</v>
+        <v>1.215</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.309</v>
+        <v>0.915</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.217</v>
+        <v>1.301</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.221</v>
+        <v>1.681</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.563</v>
+        <v>6.957</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.604</v>
+        <v>1.495</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.244</v>
+        <v>1.516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45150.52777777778</v>
+        <v>44800.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.89</v>
+        <v>11.549</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.84</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.339</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.34</v>
+        <v>24.727</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.35</v>
+        <v>20.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.72</v>
+        <v>8.731999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.19</v>
+        <v>30.423</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.03</v>
+        <v>13.711</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.93</v>
+        <v>6.149</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.7</v>
+        <v>9.087999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.98</v>
+        <v>10.446</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.64</v>
+        <v>10.802</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.74</v>
+        <v>2.985</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>8.872</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.52</v>
+        <v>13.032</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.92</v>
+        <v>7.459</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.376</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.271</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.07</v>
+        <v>129.779</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.55</v>
+        <v>25.086</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>8.446</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.77</v>
+        <v>16.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.4</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.84</v>
+        <v>1.176</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.54</v>
+        <v>15.533</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>7.351</v>
       </c>
       <c r="AB5" s="4" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.635</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>10.527</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>27.675</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>5.269</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>10.245</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44800.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>175.64</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>33.65</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
         <v>8.49</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>39.96</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>13.45</v>
+      <c r="AC6" s="4" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_469.xlsx
+++ b/DATA_goal/Junction_Flooding_469.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44800.54861111111</v>
+        <v>45150.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.861</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.491</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.076</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.861</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.002</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.492</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.701</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.367</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.983</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.944</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.138</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.723</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.566</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.961</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.973</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.143</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.999</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.309</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.721</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.494</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.966</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.167</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.101</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.612</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44800.55555555555</v>
+        <v>45150.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.701</v>
+        <v>15.374</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.214</v>
+        <v>10.833</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.775</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.682</v>
+        <v>33.225</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.798999999999999</v>
+        <v>26.821</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.089</v>
+        <v>12.099</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.165</v>
+        <v>46.928</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.311</v>
+        <v>18.615</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.421</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.414</v>
+        <v>11.826</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.088</v>
+        <v>13.288</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.764</v>
+        <v>13.877</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.471</v>
+        <v>3.865</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.488</v>
+        <v>12.031</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.53</v>
+        <v>16.943</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.054</v>
+        <v>10.387</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.602</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.039</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.35</v>
+        <v>175.806</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.401</v>
+        <v>33.682</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.626</v>
+        <v>11.105</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.569</v>
+        <v>22.313</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.352</v>
+        <v>11.573</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.473</v>
+        <v>2.181</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.557</v>
+        <v>22.799</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.035</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.471</v>
+        <v>8.882999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.178</v>
+        <v>10.415</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.267</v>
+        <v>13.793</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.568</v>
+        <v>42.715</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.071</v>
+        <v>6.128</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.002</v>
+        <v>13.884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44800.5625</v>
+        <v>45150.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.91</v>
+        <v>9.128</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.815</v>
+        <v>6.393</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.017</v>
+        <v>1.077</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.693</v>
+        <v>19.758</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.555</v>
+        <v>15.852</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.055</v>
+        <v>7.184</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.856</v>
+        <v>30.243</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.991</v>
+        <v>11.053</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.98</v>
+        <v>4.756</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.205</v>
+        <v>6.92</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.212</v>
+        <v>7.923</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.974</v>
+        <v>8.257999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.637</v>
+        <v>2.297</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.309</v>
+        <v>7.143</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.412</v>
+        <v>10.049</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.22</v>
+        <v>6.248</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.374</v>
+        <v>0.986</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.606</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.318</v>
+        <v>101.413</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.431</v>
+        <v>20.074</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.526</v>
+        <v>6.594</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.799</v>
+        <v>13.24</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.312</v>
+        <v>6.866</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.186</v>
+        <v>1.349</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.653</v>
+        <v>14.296</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.215</v>
+        <v>5.824</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.915</v>
+        <v>5.309</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.301</v>
+        <v>6.217</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.681</v>
+        <v>8.221</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.957</v>
+        <v>27.563</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.495</v>
+        <v>3.604</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.516</v>
+        <v>8.244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44800.56944444445</v>
+        <v>45150.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.549</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.925000000000001</v>
+        <v>10.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.339</v>
+        <v>1.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.727</v>
+        <v>32.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.81</v>
+        <v>26.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.731999999999999</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.423</v>
+        <v>44.19</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.711</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.149</v>
+        <v>7.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.087999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.446</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.802</v>
+        <v>13.64</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.985</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.872</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.032</v>
+        <v>16.52</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.459</v>
+        <v>9.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.376</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.271</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>129.779</v>
+        <v>170.07</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.086</v>
+        <v>32.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.446</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.79</v>
+        <v>21.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.176</v>
+        <v>1.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.533</v>
+        <v>21.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.351</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.32</v>
+        <v>8.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.635</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.527</v>
+        <v>13.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.675</v>
+        <v>39.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.269</v>
+        <v>6.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.245</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44800.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.71</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.75</v>
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>
